--- a/datasetojol.xlsx
+++ b/datasetojol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AF8D3-5A81-4AF2-8A38-6B69320D751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64E8FF8-1F2D-4681-88EB-4D1E74BAE8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6358B130-2820-4007-B053-28E10169EA08}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="960">
   <si>
     <t>created_at</t>
   </si>
@@ -2505,6 +2505,496 @@
   </si>
   <si>
     <t>@convomf nunggu gojek https://t.co/IFnKIlj6bD</t>
+  </si>
+  <si>
+    <t>arifabbb</t>
+  </si>
+  <si>
+    <t>@ndagels aku tkut kalo nyetir motor kya gini, jd aku milih abang grab yg setia nganterin aku kmana2☺️👍🏻 lov u abank</t>
+  </si>
+  <si>
+    <t>denia_paramita</t>
+  </si>
+  <si>
+    <t>@keyforj Aku mau bantu ralat info ya barusan aku aktivasi itu gak harus sama kok nomor akun Disney dan grab nya yan… https://t.co/hKJgDgqXUm</t>
+  </si>
+  <si>
+    <t>kimjeonmoo</t>
+  </si>
+  <si>
+    <t>@ddaeng613_ Itu kak km pakai grab ngga? Buka di bagian subscribe buat voucher nya. Nti bayar 39k trus dpt link disn… https://t.co/uc770bWuiA</t>
+  </si>
+  <si>
+    <t>diianlf_</t>
+  </si>
+  <si>
+    <t>@GrabID ka sya baru daftar grab bike. Kalo jaket + helm grabnya wajib di tebus ga ka ?</t>
+  </si>
+  <si>
+    <t>ininaninuneno</t>
+  </si>
+  <si>
+    <t>@qulitqulupv3 @MisterMohCabul @ramses_rahadian @JinTogel @74bidadari @mx00711 Pake Grab aja aku pesenin ya 🤭</t>
+  </si>
+  <si>
+    <t>me_crescente</t>
+  </si>
+  <si>
+    <t>Mal Paskal 23 ini asik banget dah.
+Ada lobi khusus utk pickup dan dropoff Grab (bahkan GrabBike bisa di lobi jg).
+N… https://t.co/tHFSbHbxL4</t>
+  </si>
+  <si>
+    <t>rangganav</t>
+  </si>
+  <si>
+    <t>RT @TechinAsia_ID: Bisnis cloud kitchen makin diminati sejak Grab membuka GrabKitchen pada 2018. Kini setidaknya ada dua model bisnis utama…</t>
+  </si>
+  <si>
+    <t>bulbulpim</t>
+  </si>
+  <si>
+    <t>@GrabID hallo grab express katanya cepet tapi ini kok malah lama,di tlp kurir nya malah di block lagiii bingung say… https://t.co/xX5VKb7yqH</t>
+  </si>
+  <si>
+    <t>Penghasilan on bid selama 5 hari Rp. 238.800, mana janji mu GRAB penghasilan sebulan Rp. 14.000.000 tersebut? Order… https://t.co/AmSOxwbG5r</t>
+  </si>
+  <si>
+    <t>ksjwaifu</t>
+  </si>
+  <si>
+    <t>@svtwonujjang Worth it sih kalo beli yg ukuran gede sekalian kaya 1 pint gt aplg kalo ada diskon di grab.. kalo suk… https://t.co/UwhV69H8dI</t>
+  </si>
+  <si>
+    <t>ok_trimaa</t>
+  </si>
+  <si>
+    <t>@GrabID Pernah HP ke Jambret pulang kerja di halte sunter agung dompet gk bawa, mana gak bawa cash. Naik Transjakar… https://t.co/ach2LQSvrW</t>
+  </si>
+  <si>
+    <t>ibnuakbarrr</t>
+  </si>
+  <si>
+    <t>@adil_hp21 @CaloTerminl Oooh iya bang siap, soalnya saya posisi di gunungpati dan masih baru jadi blm hafal rute.… https://t.co/93oG3Lvr8J</t>
+  </si>
+  <si>
+    <t>sam19362008</t>
+  </si>
+  <si>
+    <t>grab driver #AKAP    pejuang rupiah 🤲😇tabung ijo.. gaaasssss....     💥🔥🚀⚡🤟</t>
+  </si>
+  <si>
+    <t>quarantinedape</t>
+  </si>
+  <si>
+    <t>Mixue udah ada di Grab lalalala~</t>
+  </si>
+  <si>
+    <t>atiqahbakarudin</t>
+  </si>
+  <si>
+    <t>pernah kena waktu naik grab, driver tu berhentikan kat kedai berhadapn dengan tempat nak pergi dan takde jambatan u… https://t.co/R8144qIjjv</t>
+  </si>
+  <si>
+    <t>MILATIHANIFAAH</t>
+  </si>
+  <si>
+    <t>@GrabID Selama ada grab, semua gampang dan pastinya menghemat cost. Terasa bgt apalagi pas jaman ngekos. Terima kasih @GrabID #Grab10Versary</t>
+  </si>
+  <si>
+    <t>nor3han</t>
+  </si>
+  <si>
+    <t>abang grab kalau dah tahu delivered food tu ice cream ke cendol ke abc ke tak pyahla ambik multiple order 😭😭 penart</t>
+  </si>
+  <si>
+    <t>palap1zz4t0</t>
+  </si>
+  <si>
+    <t>@tiaranisax Mentang ur grabpay card dah sampia 👀 HAHAHAHAHA grab ajain dong kalau tk later we buy</t>
+  </si>
+  <si>
+    <t>giant_</t>
+  </si>
+  <si>
+    <t>Otak suka gak sinkron ama badan gw. Otak blg "ayo masak capcay"
+tapi jari tangan gue "buka grab pesen ayam gepuk pak gembus"</t>
+  </si>
+  <si>
+    <t>scorviyo_</t>
+  </si>
+  <si>
+    <t>Bisa2nyaa perjalanan plg ke cikalong pake grab sepanjang jalan tunduh mana si bp grab bawanya pelan bett cuaca mendung😴</t>
+  </si>
+  <si>
+    <t>mildaaoktv</t>
+  </si>
+  <si>
+    <t>Kenapasiii jcool twist ga ada di grab. Pffffft... pengen banget asli serius</t>
+  </si>
+  <si>
+    <t>_ninds</t>
+  </si>
+  <si>
+    <t>@GrabID mending bangkrut aja si, ga jelas pdjl udah top up ovo. di ovo udah masuk tapi di grab ovo cash nya 0 terus👎🏻</t>
+  </si>
+  <si>
+    <t>th1sun</t>
+  </si>
+  <si>
+    <t>nitip tas ke grab, biar bisa pura pura keluar alias bolos https://t.co/gA35iP9873</t>
+  </si>
+  <si>
+    <t>rahsucixx</t>
+  </si>
+  <si>
+    <t>Bersyukur 
+Pulang ngaret, kaka gabisa jemput, bapa gabisa jemput, pacar gabisa jemput, temen gabisa jemput, mau nai… https://t.co/chfh7NAWTc</t>
+  </si>
+  <si>
+    <t>GRAB mending bangkrut aja si, g*bl*k banget👎🏻👎🏻</t>
+  </si>
+  <si>
+    <t>BrillyanKicox</t>
+  </si>
+  <si>
+    <t>@SerieA_Lawas Beli paket disney hotstar lewat aplikasi grab aja min. Setahun 39.000</t>
+  </si>
+  <si>
+    <t>lmaogdck</t>
+  </si>
+  <si>
+    <t>@worksfess Wort it klo nengrab pas jam berangkat ngantor dan jam pulang boasanya rame bat banyak yang nyanyol.
+Saya… https://t.co/OFmjij5j4c</t>
+  </si>
+  <si>
+    <t>sabhadya</t>
+  </si>
+  <si>
+    <t>ditolak 8 grab, nangisss</t>
+  </si>
+  <si>
+    <t>onyourd__ifa</t>
+  </si>
+  <si>
+    <t>@mausejuta @airlanggafess oalah iya kak.. mau ngutek ngutek grab dulu. makasih banyak kak 😭😭</t>
+  </si>
+  <si>
+    <t>terusajagitu</t>
+  </si>
+  <si>
+    <t>@indomyfess iyaaa, aku pake promo dr grab lumayan nder 39.100 buat setaun</t>
+  </si>
+  <si>
+    <t>natianafurrr</t>
+  </si>
+  <si>
+    <t>Dpt partner rider panda ke grab ke pastu buat content. Cam nice je 🤭</t>
+  </si>
+  <si>
+    <t>feyyyy_ot7</t>
+  </si>
+  <si>
+    <t>@indomyfess Disney+
+Untung kemarin lgsung beli dapet promo grab☺️</t>
+  </si>
+  <si>
+    <t>Catwoman__10</t>
+  </si>
+  <si>
+    <t>@GrabID Mau cerita yg menariknya dulu, jadi waktu itu pesen grabfood, nahh rumahnya kan harus masuk ke gang, karna… https://t.co/UpjzJjcJQq</t>
+  </si>
+  <si>
+    <t>DanialDDD</t>
+  </si>
+  <si>
+    <t>Ada order grab tapi kesian pulak kat rider nak hantar hujan2 ni tapi lapau</t>
+  </si>
+  <si>
+    <t>worksfess</t>
+  </si>
+  <si>
+    <t>Work! Di sini ada yg pulang kerja atau berangkat kerja nyambi jadi gojek atau grab? Penghasilannya worth ga? Please… https://t.co/xgGtEmEkHM</t>
+  </si>
+  <si>
+    <t>rizkinta_sania</t>
+  </si>
+  <si>
+    <t>@sbmptnfess pernahh....  sama semua teman, grab, shopeefood, kita bisa, dan guru² juga dichatin sblmnya juga minta… https://t.co/8iVM7Z25Dx</t>
+  </si>
+  <si>
+    <t>myaltri</t>
+  </si>
+  <si>
+    <t>@collegemenfess Ada angkot, gojek, grab, maxim :)</t>
+  </si>
+  <si>
+    <t>loliggen</t>
+  </si>
+  <si>
+    <t>agak galucu klo nangis sambil dibonceng abang grab</t>
+  </si>
+  <si>
+    <t>sleepinGorj</t>
+  </si>
+  <si>
+    <t>Susah betul nak book grab sekarang</t>
+  </si>
+  <si>
+    <t>KusnantoGSucces</t>
+  </si>
+  <si>
+    <t>@GrabID Sudah hal lumrah kan kalau harga makanan di lokasi wisata pada mahal?
+Tapi tidak dengan Grab Food. Order ma… https://t.co/rWuJxhu9At</t>
+  </si>
+  <si>
+    <t>nepttunees</t>
+  </si>
+  <si>
+    <t>grab lagi grab terus bosen https://t.co/TxpI9PH09G</t>
+  </si>
+  <si>
+    <t>itznanuraz</t>
+  </si>
+  <si>
+    <t>Kepada yang tertanya tanya nak grab dari siapa 🤔? Jangan risau flonerch ada agent mereka sendiri ✨🌸
+Boleh grab dar… https://t.co/tqjs3EKSJJ</t>
+  </si>
+  <si>
+    <t>Jgn_Marah2</t>
+  </si>
+  <si>
+    <t>@tanyakanrl Dia driver grab di planet lain nder, tepatnya exo planet, tapi sekarang dia off ngegrab soalnya masih ngabdi ke negara</t>
+  </si>
+  <si>
+    <t>twmuggzy</t>
+  </si>
+  <si>
+    <t>Sbb belajar tggi pun gaji takat tu je, buat grab masyuk lagi. https://t.co/Xv2Y34I9to</t>
+  </si>
+  <si>
+    <t>hourlyfunk</t>
+  </si>
+  <si>
+    <t>makasih grab 😗😗 https://t.co/pCKpMOHbJb</t>
+  </si>
+  <si>
+    <t>dylmlia</t>
+  </si>
+  <si>
+    <t>@GrabID So happy pake grab karna aku pelanggan lama jadi selalu ada diskon, ibu ku kalo mnta tolong psenin grabbike… https://t.co/9AkAlf0wtZ</t>
+  </si>
+  <si>
+    <t>t0rajanikmat</t>
+  </si>
+  <si>
+    <t>dengerin playlist sobbing pas sunset trs bengong d grab sangat amat tidak direkomendasikan😭🖕</t>
+  </si>
+  <si>
+    <t>agsrhmd</t>
+  </si>
+  <si>
+    <t>@txtdariojoll Pernahnya stella kopi semprotin jaket grab</t>
+  </si>
+  <si>
+    <t>raobbi</t>
+  </si>
+  <si>
+    <t>gileee, lama bat ini grab</t>
+  </si>
+  <si>
+    <t>@GrabID So happy pake grab karna aku pelanggan lama jadi selalu ada diskon, ibu ku kalo mnta tolong psenin grabbike… https://t.co/r0ZwF5rW8m</t>
+  </si>
+  <si>
+    <t>@GrabID So happy pake grab karna aku pelanggan lama jadi selalu ada diskon, ibu ku kalo mnta tolong psenin grabbike… https://t.co/gf7Gr9XXQ5</t>
+  </si>
+  <si>
+    <t>izztinabilah</t>
+  </si>
+  <si>
+    <t>Pastu apa masalahnya kalau naik grab? Guna duit kau ke eh? Hahahah tak faham tolong explain 😂</t>
+  </si>
+  <si>
+    <t>wlfiechan3</t>
+  </si>
+  <si>
+    <t>@meruspico plng naek grab</t>
+  </si>
+  <si>
+    <t>pforathe</t>
+  </si>
+  <si>
+    <t>WOI TADI AKU TIDUR DI GRAB</t>
+  </si>
+  <si>
+    <t>rvynt98</t>
+  </si>
+  <si>
+    <t>Supir grab bikin emosi jiwa demi Allah kayanya baru pertama deh gua seemosi ini😭😭😭</t>
+  </si>
+  <si>
+    <t>yourolshopneeds</t>
+  </si>
+  <si>
+    <t>@nyinnyir Ini gocar atau grab ka? Bisa buat dom jateng?</t>
+  </si>
+  <si>
+    <t>ymonics</t>
+  </si>
+  <si>
+    <t>@GrabID Segera invetisgasi dan respon solusi kasus saya ini, jika tidak ada saya akan somasi Grab membiarkan pencur… https://t.co/bZNoV3P74Z</t>
+  </si>
+  <si>
+    <t>IMareta_</t>
+  </si>
+  <si>
+    <t>Terharu bgttt hari ini, ketemu orang baik sepanjang jalan. Dianterin temen terbaik, naik bus bapknya bawain tas aku… https://t.co/rezMsy0nvQ</t>
+  </si>
+  <si>
+    <t>Nichi666</t>
+  </si>
+  <si>
+    <t>@GrabID Pagi,siang,malam,selalu jadi andalan yang siap dipesan kapan dan dimana saja. Akses mudah,cepat yg bikin pe… https://t.co/flfJnZ67yG</t>
+  </si>
+  <si>
+    <t>farwanilokman</t>
+  </si>
+  <si>
+    <t>harga grab cam bsgdjeishsnsjs!! lagi hujan lagi nokharom harga dia. tempat tu tak sampai 5min . dah 40min aku bedir… https://t.co/KnUXJEApIm</t>
+  </si>
+  <si>
+    <t>BigBigRenn</t>
+  </si>
+  <si>
+    <t>@aariichaaaaan @ohyeshsunti Betul doh grab skrng bapak mahal</t>
+  </si>
+  <si>
+    <t>jengyangist</t>
+  </si>
+  <si>
+    <t>@sbmptnfess iyaaa bener! sampe sopir grab juga gue mintain doa awikwok</t>
+  </si>
+  <si>
+    <t>mrsarchuleta_28</t>
+  </si>
+  <si>
+    <t>Shopee food paling susahlah nak refund.buang masa .grab gak laju. Boleh settle 24 jam https://t.co/kYQCUfE7fA</t>
+  </si>
+  <si>
+    <t>akunsaItyyy</t>
+  </si>
+  <si>
+    <t>engga ada di gojek grab</t>
+  </si>
+  <si>
+    <t>Pascalitoos</t>
+  </si>
+  <si>
+    <t>Tapi mereka pusingnya grab clean sama biaya admin 7rb 😪😪😪</t>
+  </si>
+  <si>
+    <t>D666Smokey</t>
+  </si>
+  <si>
+    <t>aku tak tau apa yang ada pada dorang tapi semua yang dorang jumpa sporting babi hahaha abang grab tu siap kena tudu… https://t.co/t2ptO3S1t4</t>
+  </si>
+  <si>
+    <t>mayjenz</t>
+  </si>
+  <si>
+    <t>sp suruh grab ny diapus</t>
+  </si>
+  <si>
+    <t>fazzzzzzz_</t>
+  </si>
+  <si>
+    <t>Melayang $16.80 naik grab sebab lambat bangun. Malam tadi makan ubat terus pengsan. Lupa set jam 😂</t>
+  </si>
+  <si>
+    <t>yayamswr</t>
+  </si>
+  <si>
+    <t>hidup aku skrg hari2 grab je eh 😂 1 hari 3 4 kali grab</t>
+  </si>
+  <si>
+    <t>EiffelFaiq</t>
+  </si>
+  <si>
+    <t>Slow motion gila pak cik grab pagi tadi</t>
+  </si>
+  <si>
+    <t>Bakulmotor1</t>
+  </si>
+  <si>
+    <t>@rskyrmndni Justru wanita gak bisa masak ada untung nya, nguntungin warung, grab/gi food juga</t>
+  </si>
+  <si>
+    <t>mmnurfadli</t>
+  </si>
+  <si>
+    <t>Pagi pagi dah joging pake grab now telat 9detik pas absen , tae banget</t>
+  </si>
+  <si>
+    <t>minsasuga</t>
+  </si>
+  <si>
+    <t>@balabalajagoeng naek krl dari sudimara ke tebet, trus dari situ bisa naek tj atau grab turun di kokas</t>
+  </si>
+  <si>
+    <t>takip_atip</t>
+  </si>
+  <si>
+    <t>Assalamualaikum dan selamat pagi,harini kita try on grab lokasi jauh plak 
+Hehehe, https://t.co/ST1L8I2MGg</t>
+  </si>
+  <si>
+    <t>mindhidhie</t>
+  </si>
+  <si>
+    <t>Ada orang minta dipesenin grab, udh gue pesenin sampe gue harus diphpin 2x sm driver perkara 1 driver gak mau jauh… https://t.co/wM7ajfZLJY</t>
+  </si>
+  <si>
+    <t>azryn81</t>
+  </si>
+  <si>
+    <t>@alfiezainal @SyedSaddiq La ni lagi teruk rasanya, gaji kecik tp brg semua naik. Officemate sy yg lelaki semua buat… https://t.co/caSKhncQjT</t>
+  </si>
+  <si>
+    <t>adenaputriabi</t>
+  </si>
+  <si>
+    <t>@Askrlfess aku si mending naik grab</t>
+  </si>
+  <si>
+    <t>sono_waaan</t>
+  </si>
+  <si>
+    <t>Hujan lebat mari oda grab.</t>
+  </si>
+  <si>
+    <t>SyahirahStella</t>
+  </si>
+  <si>
+    <t>duit habis dekat grab je🥲</t>
+  </si>
+  <si>
+    <t>pickoopiku</t>
+  </si>
+  <si>
+    <t>pulang dr sency jam 8 mlm sendiri naik grab aja w TAKUT BGT ANJG</t>
+  </si>
+  <si>
+    <t>@selmaaazizah Duh maaf bgt ya kak Salma.  Soal aplikasi Grab yg tiba-tiba keluar, aku bantu cek dulu ya. Mohon info… https://t.co/JDXuWBmm9q</t>
+  </si>
+  <si>
+    <t>crigisss</t>
+  </si>
+  <si>
+    <t>help promo grab atau goride ga ada terus 🙃</t>
+  </si>
+  <si>
+    <t>Baru aja terjadi.
+Pesen Grab bike kan gw. Trus si abangnya dateng. Pas gw mau naik baru jalan mendekat k motor, tuh… https://t.co/FrtfcwJhtj</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +3074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,11 +3097,404 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3092,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20069F0-3DC3-4BBF-8786-B7E50189FACA}">
-  <dimension ref="A1:GS501"/>
+  <dimension ref="A1:GS503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="D405" sqref="D405"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="E502" sqref="E502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10237,705 +11120,1758 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="9"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
-      <c r="D409" s="8"/>
-      <c r="E409" s="8"/>
+      <c r="A409" s="9">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C409" t="s">
+        <v>800</v>
+      </c>
+      <c r="D409" t="s">
+        <v>801</v>
+      </c>
+      <c r="E409" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="9"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="8"/>
-      <c r="D410" s="8"/>
-      <c r="E410" s="8"/>
+      <c r="A410" s="9">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C410" t="s">
+        <v>802</v>
+      </c>
+      <c r="D410" t="s">
+        <v>803</v>
+      </c>
+      <c r="E410" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="9"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="8"/>
-      <c r="D411" s="8"/>
-      <c r="E411" s="8"/>
+      <c r="A411" s="9">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C411" t="s">
+        <v>804</v>
+      </c>
+      <c r="D411" t="s">
+        <v>805</v>
+      </c>
+      <c r="E411" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="9"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="8"/>
-      <c r="D412" s="8"/>
-      <c r="E412" s="8"/>
+      <c r="A412" s="9">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C412" t="s">
+        <v>806</v>
+      </c>
+      <c r="D412" t="s">
+        <v>807</v>
+      </c>
+      <c r="E412" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="9"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="8"/>
-      <c r="D413" s="8"/>
-      <c r="E413" s="8"/>
+      <c r="A413" s="9">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C413" t="s">
+        <v>808</v>
+      </c>
+      <c r="D413" t="s">
+        <v>809</v>
+      </c>
+      <c r="E413" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414" s="9"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="8"/>
-      <c r="D414" s="8"/>
-      <c r="E414" s="8"/>
+      <c r="A414" s="9">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C414" t="s">
+        <v>810</v>
+      </c>
+      <c r="D414" t="s">
+        <v>811</v>
+      </c>
+      <c r="E414" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="9"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
+      <c r="A415" s="9">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C415" t="s">
+        <v>812</v>
+      </c>
+      <c r="D415" t="s">
+        <v>813</v>
+      </c>
+      <c r="E415" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="9"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="8"/>
-      <c r="E416" s="8"/>
+      <c r="A416" s="9">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C416" t="s">
+        <v>814</v>
+      </c>
+      <c r="D416" t="s">
+        <v>815</v>
+      </c>
+      <c r="E416" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="9"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
+      <c r="A417" s="9">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C417" t="s">
+        <v>405</v>
+      </c>
+      <c r="D417" t="s">
+        <v>816</v>
+      </c>
+      <c r="E417" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="9"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
-      <c r="D418" s="8"/>
-      <c r="E418" s="8"/>
+      <c r="A418" s="9">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C418" t="s">
+        <v>817</v>
+      </c>
+      <c r="D418" t="s">
+        <v>818</v>
+      </c>
+      <c r="E418" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="9"/>
-      <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="8"/>
-      <c r="E419" s="8"/>
+      <c r="A419" s="9">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C419" t="s">
+        <v>819</v>
+      </c>
+      <c r="D419" t="s">
+        <v>820</v>
+      </c>
+      <c r="E419" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="9"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
+      <c r="A420" s="9">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C420" t="s">
+        <v>821</v>
+      </c>
+      <c r="D420" t="s">
+        <v>822</v>
+      </c>
+      <c r="E420" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" s="9"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
-      <c r="D421" s="8"/>
-      <c r="E421" s="8"/>
+      <c r="A421" s="9">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C421" t="s">
+        <v>823</v>
+      </c>
+      <c r="D421" t="s">
+        <v>824</v>
+      </c>
+      <c r="E421" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="9"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
-      <c r="D422" s="8"/>
-      <c r="E422" s="8"/>
+      <c r="A422" s="9">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C422" t="s">
+        <v>825</v>
+      </c>
+      <c r="D422" t="s">
+        <v>826</v>
+      </c>
+      <c r="E422" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" s="9"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
+      <c r="A423" s="9">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C423" t="s">
+        <v>827</v>
+      </c>
+      <c r="D423" t="s">
+        <v>828</v>
+      </c>
+      <c r="E423" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="9"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
+      <c r="A424" s="9">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C424" t="s">
+        <v>829</v>
+      </c>
+      <c r="D424" t="s">
+        <v>830</v>
+      </c>
+      <c r="E424" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="9"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
-      <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
+      <c r="A425" s="9">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C425" t="s">
+        <v>831</v>
+      </c>
+      <c r="D425" t="s">
+        <v>832</v>
+      </c>
+      <c r="E425" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="9"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
+      <c r="A426" s="9">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C426" t="s">
+        <v>833</v>
+      </c>
+      <c r="D426" t="s">
+        <v>834</v>
+      </c>
+      <c r="E426" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="9"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
-      <c r="D427" s="8"/>
-      <c r="E427" s="8"/>
+      <c r="A427" s="9">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C427" t="s">
+        <v>835</v>
+      </c>
+      <c r="D427" t="s">
+        <v>836</v>
+      </c>
+      <c r="E427" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="9"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="8"/>
-      <c r="E428" s="8"/>
+      <c r="A428" s="9">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C428" t="s">
+        <v>837</v>
+      </c>
+      <c r="D428" t="s">
+        <v>838</v>
+      </c>
+      <c r="E428" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="9"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
-      <c r="D429" s="8"/>
-      <c r="E429" s="8"/>
+      <c r="A429" s="9">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1">
+        <v>44765</v>
+      </c>
+      <c r="C429" t="s">
+        <v>839</v>
+      </c>
+      <c r="D429" t="s">
+        <v>840</v>
+      </c>
+      <c r="E429" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="9"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
-      <c r="D430" s="8"/>
-      <c r="E430" s="8"/>
+      <c r="A430" s="9">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C430" t="s">
+        <v>841</v>
+      </c>
+      <c r="D430" t="s">
+        <v>842</v>
+      </c>
+      <c r="E430" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="9"/>
-      <c r="B431" s="8"/>
-      <c r="C431" s="8"/>
-      <c r="D431" s="8"/>
-      <c r="E431" s="8"/>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="9"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="8"/>
-      <c r="D432" s="8"/>
-      <c r="E432" s="8"/>
+      <c r="A431" s="9">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C431" t="s">
+        <v>843</v>
+      </c>
+      <c r="D431" t="s">
+        <v>844</v>
+      </c>
+      <c r="E431" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="9">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C432" t="s">
+        <v>845</v>
+      </c>
+      <c r="D432" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E432" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A433" s="9"/>
-      <c r="B433" s="8"/>
-      <c r="C433" s="8"/>
-      <c r="D433" s="8"/>
-      <c r="E433" s="8"/>
+      <c r="A433" s="9">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C433" t="s">
+        <v>914</v>
+      </c>
+      <c r="D433" t="s">
+        <v>915</v>
+      </c>
+      <c r="E433" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" s="9"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="8"/>
-      <c r="D434" s="8"/>
-      <c r="E434" s="8"/>
+      <c r="A434" s="9">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C434" t="s">
+        <v>762</v>
+      </c>
+      <c r="D434" t="s">
+        <v>763</v>
+      </c>
+      <c r="E434" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="9"/>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
-      <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
+      <c r="A435" s="9">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C435" t="s">
+        <v>841</v>
+      </c>
+      <c r="D435" t="s">
+        <v>847</v>
+      </c>
+      <c r="E435" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" s="9"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="8"/>
-      <c r="D436" s="8"/>
-      <c r="E436" s="8"/>
+      <c r="A436" s="9">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C436" t="s">
+        <v>848</v>
+      </c>
+      <c r="D436" t="s">
+        <v>849</v>
+      </c>
+      <c r="E436" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A437" s="9"/>
-      <c r="B437" s="8"/>
-      <c r="C437" s="8"/>
-      <c r="D437" s="8"/>
-      <c r="E437" s="8"/>
+      <c r="A437" s="9">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C437" t="s">
+        <v>850</v>
+      </c>
+      <c r="D437" t="s">
+        <v>851</v>
+      </c>
+      <c r="E437" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A438" s="9"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="8"/>
-      <c r="D438" s="8"/>
-      <c r="E438" s="8"/>
+      <c r="A438" s="9">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C438" t="s">
+        <v>852</v>
+      </c>
+      <c r="D438" t="s">
+        <v>853</v>
+      </c>
+      <c r="E438" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A439" s="9"/>
-      <c r="B439" s="8"/>
-      <c r="C439" s="8"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
+      <c r="A439" s="9">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C439" t="s">
+        <v>854</v>
+      </c>
+      <c r="D439" t="s">
+        <v>855</v>
+      </c>
+      <c r="E439" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A440" s="9"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="8"/>
-      <c r="D440" s="8"/>
-      <c r="E440" s="8"/>
+      <c r="A440" s="9">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C440" t="s">
+        <v>856</v>
+      </c>
+      <c r="D440" t="s">
+        <v>857</v>
+      </c>
+      <c r="E440" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A441" s="9"/>
-      <c r="B441" s="8"/>
-      <c r="C441" s="8"/>
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
+      <c r="A441" s="9">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C441" t="s">
+        <v>858</v>
+      </c>
+      <c r="D441" t="s">
+        <v>859</v>
+      </c>
+      <c r="E441" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A442" s="9"/>
-      <c r="B442" s="8"/>
-      <c r="C442" s="8"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
+      <c r="A442" s="9">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C442" t="s">
+        <v>916</v>
+      </c>
+      <c r="D442" t="s">
+        <v>917</v>
+      </c>
+      <c r="E442" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A443" s="9"/>
-      <c r="B443" s="8"/>
-      <c r="C443" s="8"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
+      <c r="A443" s="9">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C443" t="s">
+        <v>860</v>
+      </c>
+      <c r="D443" t="s">
+        <v>861</v>
+      </c>
+      <c r="E443" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A444" s="9"/>
-      <c r="B444" s="8"/>
-      <c r="C444" s="8"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
+      <c r="A444" s="9">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C444" t="s">
+        <v>862</v>
+      </c>
+      <c r="D444" t="s">
+        <v>863</v>
+      </c>
+      <c r="E444" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" s="9"/>
-      <c r="B445" s="8"/>
-      <c r="C445" s="8"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
+      <c r="A445" s="9">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C445" t="s">
+        <v>864</v>
+      </c>
+      <c r="D445" t="s">
+        <v>865</v>
+      </c>
+      <c r="E445" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A446" s="9"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="8"/>
-      <c r="D446" s="8"/>
-      <c r="E446" s="8"/>
+      <c r="A446" s="9">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C446" t="s">
+        <v>866</v>
+      </c>
+      <c r="D446" t="s">
+        <v>867</v>
+      </c>
+      <c r="E446" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A447" s="9"/>
-      <c r="B447" s="8"/>
-      <c r="C447" s="8"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
+      <c r="A447" s="9">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C447" t="s">
+        <v>868</v>
+      </c>
+      <c r="D447" t="s">
+        <v>869</v>
+      </c>
+      <c r="E447" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A448" s="9"/>
-      <c r="B448" s="8"/>
-      <c r="C448" s="8"/>
-      <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
+      <c r="A448" s="9">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C448" t="s">
+        <v>870</v>
+      </c>
+      <c r="D448" t="s">
+        <v>871</v>
+      </c>
+      <c r="E448" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A449" s="9"/>
-      <c r="B449" s="8"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
+      <c r="A449" s="9">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C449" t="s">
+        <v>872</v>
+      </c>
+      <c r="D449" t="s">
+        <v>873</v>
+      </c>
+      <c r="E449" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A450" s="9"/>
-      <c r="B450" s="8"/>
-      <c r="C450" s="8"/>
-      <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
+      <c r="A450" s="9">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C450" t="s">
+        <v>874</v>
+      </c>
+      <c r="D450" t="s">
+        <v>875</v>
+      </c>
+      <c r="E450" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A451" s="9"/>
-      <c r="B451" s="8"/>
-      <c r="C451" s="8"/>
-      <c r="D451" s="8"/>
-      <c r="E451" s="8"/>
+      <c r="A451" s="9">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C451" t="s">
+        <v>876</v>
+      </c>
+      <c r="D451" t="s">
+        <v>877</v>
+      </c>
+      <c r="E451" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A452" s="9"/>
-      <c r="B452" s="8"/>
-      <c r="C452" s="8"/>
-      <c r="D452" s="8"/>
-      <c r="E452" s="8"/>
+      <c r="A452" s="9">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C452" t="s">
+        <v>878</v>
+      </c>
+      <c r="D452" t="s">
+        <v>879</v>
+      </c>
+      <c r="E452" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A453" s="9"/>
-      <c r="B453" s="8"/>
-      <c r="C453" s="8"/>
-      <c r="D453" s="8"/>
-      <c r="E453" s="8"/>
+      <c r="A453" s="9">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C453" t="s">
+        <v>880</v>
+      </c>
+      <c r="D453" t="s">
+        <v>881</v>
+      </c>
+      <c r="E453" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A454" s="9"/>
-      <c r="B454" s="8"/>
-      <c r="C454" s="8"/>
-      <c r="D454" s="8"/>
-      <c r="E454" s="8"/>
+      <c r="A454" s="9">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C454" t="s">
+        <v>882</v>
+      </c>
+      <c r="D454" t="s">
+        <v>883</v>
+      </c>
+      <c r="E454" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A455" s="9"/>
-      <c r="B455" s="8"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
+      <c r="A455" s="9">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C455" t="s">
+        <v>884</v>
+      </c>
+      <c r="D455" t="s">
+        <v>885</v>
+      </c>
+      <c r="E455" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A456" s="9"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
+      <c r="A456" s="9">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C456" t="s">
+        <v>886</v>
+      </c>
+      <c r="D456" t="s">
+        <v>887</v>
+      </c>
+      <c r="E456" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A457" s="9"/>
-      <c r="B457" s="8"/>
-      <c r="C457" s="8"/>
-      <c r="D457" s="8"/>
-      <c r="E457" s="8"/>
+      <c r="A457" s="9">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C457" t="s">
+        <v>888</v>
+      </c>
+      <c r="D457" t="s">
+        <v>889</v>
+      </c>
+      <c r="E457" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A458" s="9"/>
-      <c r="B458" s="8"/>
-      <c r="C458" s="8"/>
-      <c r="D458" s="8"/>
-      <c r="E458" s="8"/>
+      <c r="A458" s="9">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C458" t="s">
+        <v>890</v>
+      </c>
+      <c r="D458" t="s">
+        <v>891</v>
+      </c>
+      <c r="E458" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A459" s="9"/>
-      <c r="B459" s="8"/>
-      <c r="C459" s="8"/>
-      <c r="D459" s="8"/>
-      <c r="E459" s="8"/>
+      <c r="A459" s="9">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C459" t="s">
+        <v>892</v>
+      </c>
+      <c r="D459" t="s">
+        <v>893</v>
+      </c>
+      <c r="E459" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A460" s="9"/>
-      <c r="B460" s="8"/>
-      <c r="C460" s="8"/>
-      <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
+      <c r="A460" s="9">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C460" t="s">
+        <v>894</v>
+      </c>
+      <c r="D460" t="s">
+        <v>895</v>
+      </c>
+      <c r="E460" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A461" s="9"/>
-      <c r="B461" s="8"/>
-      <c r="C461" s="8"/>
-      <c r="D461" s="8"/>
-      <c r="E461" s="8"/>
+      <c r="A461" s="9">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C461" t="s">
+        <v>888</v>
+      </c>
+      <c r="D461" t="s">
+        <v>896</v>
+      </c>
+      <c r="E461" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A462" s="9"/>
-      <c r="B462" s="8"/>
-      <c r="C462" s="8"/>
-      <c r="D462" s="8"/>
-      <c r="E462" s="8"/>
+      <c r="A462" s="9">
+        <v>461</v>
+      </c>
+      <c r="B462" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C462" t="s">
+        <v>918</v>
+      </c>
+      <c r="D462" t="s">
+        <v>919</v>
+      </c>
+      <c r="E462" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A463" s="9"/>
-      <c r="B463" s="8"/>
-      <c r="C463" s="8"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="8"/>
+      <c r="A463" s="9">
+        <v>462</v>
+      </c>
+      <c r="B463" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C463" t="s">
+        <v>888</v>
+      </c>
+      <c r="D463" t="s">
+        <v>897</v>
+      </c>
+      <c r="E463" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A464" s="9"/>
-      <c r="B464" s="8"/>
-      <c r="C464" s="8"/>
-      <c r="D464" s="8"/>
-      <c r="E464" s="8"/>
+      <c r="A464" s="9">
+        <v>463</v>
+      </c>
+      <c r="B464" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C464" t="s">
+        <v>920</v>
+      </c>
+      <c r="D464" t="s">
+        <v>921</v>
+      </c>
+      <c r="E464" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A465" s="9"/>
-      <c r="B465" s="8"/>
-      <c r="C465" s="8"/>
-      <c r="D465" s="8"/>
-      <c r="E465" s="8"/>
+      <c r="A465" s="9">
+        <v>464</v>
+      </c>
+      <c r="B465" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C465" t="s">
+        <v>922</v>
+      </c>
+      <c r="D465" t="s">
+        <v>923</v>
+      </c>
+      <c r="E465" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A466" s="9"/>
-      <c r="B466" s="8"/>
-      <c r="C466" s="8"/>
-      <c r="D466" s="8"/>
-      <c r="E466" s="8"/>
+      <c r="A466" s="9">
+        <v>465</v>
+      </c>
+      <c r="B466" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C466" t="s">
+        <v>898</v>
+      </c>
+      <c r="D466" t="s">
+        <v>899</v>
+      </c>
+      <c r="E466" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A467" s="9"/>
-      <c r="B467" s="8"/>
-      <c r="C467" s="8"/>
-      <c r="D467" s="8"/>
-      <c r="E467" s="8"/>
+      <c r="A467" s="9">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C467" t="s">
+        <v>900</v>
+      </c>
+      <c r="D467" t="s">
+        <v>901</v>
+      </c>
+      <c r="E467" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A468" s="9"/>
-      <c r="B468" s="8"/>
-      <c r="C468" s="8"/>
-      <c r="D468" s="8"/>
-      <c r="E468" s="8"/>
+      <c r="A468" s="9">
+        <v>467</v>
+      </c>
+      <c r="B468" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C468" t="s">
+        <v>902</v>
+      </c>
+      <c r="D468" t="s">
+        <v>903</v>
+      </c>
+      <c r="E468" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A469" s="9"/>
-      <c r="B469" s="8"/>
-      <c r="C469" s="8"/>
-      <c r="D469" s="8"/>
-      <c r="E469" s="8"/>
+      <c r="A469" s="9">
+        <v>468</v>
+      </c>
+      <c r="B469" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C469" t="s">
+        <v>904</v>
+      </c>
+      <c r="D469" t="s">
+        <v>905</v>
+      </c>
+      <c r="E469" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A470" s="9"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="8"/>
-      <c r="D470" s="8"/>
-      <c r="E470" s="8"/>
+      <c r="A470" s="9">
+        <v>469</v>
+      </c>
+      <c r="B470" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C470" t="s">
+        <v>906</v>
+      </c>
+      <c r="D470" t="s">
+        <v>907</v>
+      </c>
+      <c r="E470" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A471" s="9"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="8"/>
-      <c r="D471" s="8"/>
-      <c r="E471" s="8"/>
+      <c r="A471" s="9">
+        <v>470</v>
+      </c>
+      <c r="B471" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C471" t="s">
+        <v>908</v>
+      </c>
+      <c r="D471" t="s">
+        <v>909</v>
+      </c>
+      <c r="E471" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A472" s="9"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="8"/>
-      <c r="D472" s="8"/>
-      <c r="E472" s="8"/>
+      <c r="A472" s="9">
+        <v>471</v>
+      </c>
+      <c r="B472" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C472" t="s">
+        <v>910</v>
+      </c>
+      <c r="D472" t="s">
+        <v>911</v>
+      </c>
+      <c r="E472" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A473" s="9"/>
-      <c r="B473" s="8"/>
-      <c r="C473" s="8"/>
-      <c r="D473" s="8"/>
-      <c r="E473" s="8"/>
+      <c r="A473" s="9">
+        <v>472</v>
+      </c>
+      <c r="B473" s="1">
+        <v>44764</v>
+      </c>
+      <c r="C473" t="s">
+        <v>912</v>
+      </c>
+      <c r="D473" t="s">
+        <v>913</v>
+      </c>
+      <c r="E473" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A474" s="9"/>
-      <c r="B474" s="8"/>
-      <c r="C474" s="8"/>
-      <c r="D474" s="8"/>
-      <c r="E474" s="8"/>
+      <c r="A474" s="9">
+        <v>473</v>
+      </c>
+      <c r="B474" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C474" t="s">
+        <v>952</v>
+      </c>
+      <c r="D474" t="s">
+        <v>953</v>
+      </c>
+      <c r="E474" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A475" s="9"/>
-      <c r="B475" s="8"/>
-      <c r="C475" s="8"/>
-      <c r="D475" s="8"/>
-      <c r="E475" s="8"/>
+      <c r="A475" s="9">
+        <v>474</v>
+      </c>
+      <c r="B475" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C475" t="s">
+        <v>954</v>
+      </c>
+      <c r="D475" t="s">
+        <v>955</v>
+      </c>
+      <c r="E475" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A476" s="9"/>
-      <c r="B476" s="8"/>
-      <c r="C476" s="8"/>
-      <c r="D476" s="8"/>
-      <c r="E476" s="8"/>
+      <c r="A476" s="9">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C476" t="s">
+        <v>549</v>
+      </c>
+      <c r="D476" t="s">
+        <v>550</v>
+      </c>
+      <c r="E476" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A477" s="9"/>
-      <c r="B477" s="8"/>
-      <c r="C477" s="8"/>
-      <c r="D477" s="8"/>
-      <c r="E477" s="8"/>
+      <c r="A477" s="9">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C477" t="s">
+        <v>241</v>
+      </c>
+      <c r="D477" t="s">
+        <v>956</v>
+      </c>
+      <c r="E477" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A478" s="9"/>
-      <c r="B478" s="8"/>
-      <c r="C478" s="8"/>
-      <c r="D478" s="8"/>
-      <c r="E478" s="8"/>
+      <c r="A478" s="9">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C478" t="s">
+        <v>950</v>
+      </c>
+      <c r="D478" t="s">
+        <v>951</v>
+      </c>
+      <c r="E478" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A479" s="9"/>
-      <c r="B479" s="8"/>
-      <c r="C479" s="8"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
+      <c r="A479" s="9">
+        <v>478</v>
+      </c>
+      <c r="B479" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C479" t="s">
+        <v>504</v>
+      </c>
+      <c r="D479" t="s">
+        <v>505</v>
+      </c>
+      <c r="E479" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A480" s="9"/>
-      <c r="B480" s="8"/>
-      <c r="C480" s="8"/>
-      <c r="D480" s="8"/>
-      <c r="E480" s="8"/>
+      <c r="A480" s="9">
+        <v>479</v>
+      </c>
+      <c r="B480" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C480" t="s">
+        <v>924</v>
+      </c>
+      <c r="D480" t="s">
+        <v>925</v>
+      </c>
+      <c r="E480" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A481" s="9"/>
-      <c r="B481" s="8"/>
-      <c r="C481" s="8"/>
-      <c r="D481" s="8"/>
-      <c r="E481" s="8"/>
+      <c r="A481" s="9">
+        <v>480</v>
+      </c>
+      <c r="B481" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C481" t="s">
+        <v>926</v>
+      </c>
+      <c r="D481" t="s">
+        <v>927</v>
+      </c>
+      <c r="E481" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A482" s="9"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="8"/>
-      <c r="D482" s="8"/>
-      <c r="E482" s="8"/>
+      <c r="A482" s="9">
+        <v>481</v>
+      </c>
+      <c r="B482" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C482" t="s">
+        <v>928</v>
+      </c>
+      <c r="D482" t="s">
+        <v>929</v>
+      </c>
+      <c r="E482" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A483" s="9"/>
-      <c r="B483" s="8"/>
-      <c r="C483" s="8"/>
-      <c r="D483" s="8"/>
-      <c r="E483" s="8"/>
+      <c r="A483" s="9">
+        <v>482</v>
+      </c>
+      <c r="B483" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C483" t="s">
+        <v>930</v>
+      </c>
+      <c r="D483" t="s">
+        <v>931</v>
+      </c>
+      <c r="E483" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A484" s="9"/>
-      <c r="B484" s="8"/>
-      <c r="C484" s="8"/>
-      <c r="D484" s="8"/>
-      <c r="E484" s="8"/>
+      <c r="A484" s="9">
+        <v>483</v>
+      </c>
+      <c r="B484" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C484" t="s">
+        <v>957</v>
+      </c>
+      <c r="D484" t="s">
+        <v>958</v>
+      </c>
+      <c r="E484" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A485" s="9"/>
-      <c r="B485" s="8"/>
-      <c r="C485" s="8"/>
-      <c r="D485" s="8"/>
-      <c r="E485" s="8"/>
+      <c r="A485" s="9">
+        <v>484</v>
+      </c>
+      <c r="B485" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C485" t="s">
+        <v>932</v>
+      </c>
+      <c r="D485" t="s">
+        <v>933</v>
+      </c>
+      <c r="E485" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A486" s="9"/>
-      <c r="B486" s="8"/>
-      <c r="C486" s="8"/>
-      <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
+      <c r="A486" s="9">
+        <v>485</v>
+      </c>
+      <c r="B486" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C486" t="s">
+        <v>934</v>
+      </c>
+      <c r="D486" t="s">
+        <v>935</v>
+      </c>
+      <c r="E486" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A487" s="9"/>
-      <c r="B487" s="8"/>
-      <c r="C487" s="8"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
+      <c r="A487" s="9">
+        <v>486</v>
+      </c>
+      <c r="B487" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C487" t="s">
+        <v>936</v>
+      </c>
+      <c r="D487" t="s">
+        <v>937</v>
+      </c>
+      <c r="E487" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A488" s="9"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="8"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
+      <c r="A488" s="9">
+        <v>487</v>
+      </c>
+      <c r="B488" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C488" t="s">
+        <v>938</v>
+      </c>
+      <c r="D488" t="s">
+        <v>939</v>
+      </c>
+      <c r="E488" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A489" s="9"/>
-      <c r="B489" s="8"/>
-      <c r="C489" s="8"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
+      <c r="A489" s="9">
+        <v>488</v>
+      </c>
+      <c r="B489" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C489" t="s">
+        <v>940</v>
+      </c>
+      <c r="D489" t="s">
+        <v>941</v>
+      </c>
+      <c r="E489" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A490" s="9"/>
-      <c r="B490" s="8"/>
-      <c r="C490" s="8"/>
-      <c r="D490" s="8"/>
-      <c r="E490" s="8"/>
+      <c r="A490" s="9">
+        <v>489</v>
+      </c>
+      <c r="B490" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C490" t="s">
+        <v>528</v>
+      </c>
+      <c r="D490" t="s">
+        <v>529</v>
+      </c>
+      <c r="E490" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A491" s="9"/>
-      <c r="B491" s="8"/>
-      <c r="C491" s="8"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="8"/>
+      <c r="A491" s="9">
+        <v>490</v>
+      </c>
+      <c r="B491" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C491" t="s">
+        <v>942</v>
+      </c>
+      <c r="D491" t="s">
+        <v>943</v>
+      </c>
+      <c r="E491" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A492" s="9"/>
-      <c r="B492" s="8"/>
-      <c r="C492" s="8"/>
-      <c r="D492" s="8"/>
-      <c r="E492" s="8"/>
+      <c r="A492" s="9">
+        <v>491</v>
+      </c>
+      <c r="B492" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C492" t="s">
+        <v>944</v>
+      </c>
+      <c r="D492" t="s">
+        <v>945</v>
+      </c>
+      <c r="E492" s="8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A493" s="9"/>
-      <c r="B493" s="8"/>
-      <c r="C493" s="8"/>
-      <c r="D493" s="8"/>
-      <c r="E493" s="8"/>
+      <c r="A493" s="9">
+        <v>492</v>
+      </c>
+      <c r="B493" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C493" t="s">
+        <v>946</v>
+      </c>
+      <c r="D493" t="s">
+        <v>947</v>
+      </c>
+      <c r="E493" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A494" s="9"/>
-      <c r="B494" s="8"/>
-      <c r="C494" s="8"/>
-      <c r="D494" s="8"/>
-      <c r="E494" s="8"/>
+      <c r="A494" s="9">
+        <v>493</v>
+      </c>
+      <c r="B494" s="1">
+        <v>44761</v>
+      </c>
+      <c r="C494" t="s">
+        <v>948</v>
+      </c>
+      <c r="D494" t="s">
+        <v>949</v>
+      </c>
+      <c r="E494" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A495" s="9"/>
-      <c r="B495" s="8"/>
-      <c r="C495" s="8"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
+      <c r="A495" s="9">
+        <v>494</v>
+      </c>
+      <c r="B495" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C495" t="s">
+        <v>306</v>
+      </c>
+      <c r="D495" t="s">
+        <v>959</v>
+      </c>
+      <c r="E495" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A496" s="9"/>
-      <c r="B496" s="8"/>
-      <c r="C496" s="8"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
+      <c r="A496" s="9">
+        <v>495</v>
+      </c>
+      <c r="B496" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C496" t="s">
+        <v>317</v>
+      </c>
+      <c r="D496" t="s">
+        <v>318</v>
+      </c>
+      <c r="E496" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A497" s="9"/>
-      <c r="B497" s="8"/>
-      <c r="C497" s="8"/>
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
+      <c r="A497" s="9">
+        <v>496</v>
+      </c>
+      <c r="B497" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C497" t="s">
+        <v>307</v>
+      </c>
+      <c r="D497" t="s">
+        <v>334</v>
+      </c>
+      <c r="E497" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A498" s="9"/>
-      <c r="B498" s="8"/>
-      <c r="C498" s="8"/>
-      <c r="D498" s="8"/>
-      <c r="E498" s="8"/>
+      <c r="A498" s="9">
+        <v>497</v>
+      </c>
+      <c r="B498" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C498" t="s">
+        <v>351</v>
+      </c>
+      <c r="D498" t="s">
+        <v>352</v>
+      </c>
+      <c r="E498" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A499" s="9"/>
-      <c r="B499" s="8"/>
-      <c r="C499" s="8"/>
-      <c r="D499" s="8"/>
-      <c r="E499" s="8"/>
+      <c r="A499" s="9">
+        <v>498</v>
+      </c>
+      <c r="B499" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C499" t="s">
+        <v>364</v>
+      </c>
+      <c r="D499" t="s">
+        <v>365</v>
+      </c>
+      <c r="E499" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A500" s="9"/>
-      <c r="B500" s="8"/>
-      <c r="C500" s="8"/>
-      <c r="D500" s="8"/>
-      <c r="E500" s="8"/>
+      <c r="A500" s="9">
+        <v>499</v>
+      </c>
+      <c r="B500" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C500" t="s">
+        <v>366</v>
+      </c>
+      <c r="D500" t="s">
+        <v>367</v>
+      </c>
+      <c r="E500" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A501" s="9"/>
-      <c r="B501" s="8"/>
-      <c r="C501" s="8"/>
-      <c r="D501" s="8"/>
-      <c r="E501" s="8"/>
+      <c r="A501" s="9">
+        <v>500</v>
+      </c>
+      <c r="B501" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C501" t="s">
+        <v>368</v>
+      </c>
+      <c r="D501" t="s">
+        <v>369</v>
+      </c>
+      <c r="E501" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B503" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="E2:E486" xr:uid="{C20069F0-3DC3-4BBF-8786-B7E50189FACA}"/>
   <conditionalFormatting sqref="D258:D393">
-    <cfRule type="duplicateValues" dxfId="16" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258:D408">
-    <cfRule type="duplicateValues" dxfId="15" priority="752"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="791"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D52">
-    <cfRule type="duplicateValues" dxfId="14" priority="785"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="786"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="824"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="825"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D130">
-    <cfRule type="duplicateValues" dxfId="12" priority="923"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="962"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D129">
-    <cfRule type="duplicateValues" dxfId="11" priority="926"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="965"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D219:D221 D252:D257 D2:D213">
-    <cfRule type="duplicateValues" dxfId="10" priority="940"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="979"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D168 D1:E1">
-    <cfRule type="duplicateValues" dxfId="9" priority="947"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258:D408 D2:D168 D1:E1">
-    <cfRule type="duplicateValues" dxfId="8" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="989"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D228">
-    <cfRule type="duplicateValues" dxfId="7" priority="964"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D229:D230">
+    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229:D230">
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D231:D232">
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231:D232">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D233:D251">
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233:D251">
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D251">
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D409">
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D410">
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D411">
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D412">
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D413">
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D414:D417">
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D418:D419">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D420:D421">
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D422:D425">
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D426">
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D427:D429">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D253:D429">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D430">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D431:D432 D434:D438">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D439:D440">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D441">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D443">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D444:D445">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D446:D447">
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D448:D449">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D450:D452">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D453:D454">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D455">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D456:D458">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D459:D461 D463 D466">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D467:D473 D433 D442 D462">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D464:D465">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D479:D481">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D482:D483">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D485:D489">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D490">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D491:D492">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D493:D494 D478 D474">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229:D230">
+  <conditionalFormatting sqref="D475:D476">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D231:D232">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="D252:D494">
+    <cfRule type="duplicateValues" dxfId="4" priority="1023"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C231:D232">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="D477 D484">
+    <cfRule type="duplicateValues" dxfId="3" priority="1026"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D233:D251">
+  <conditionalFormatting sqref="D497">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C233:D251">
+  <conditionalFormatting sqref="D498">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D251">
+  <conditionalFormatting sqref="D499:D503">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
